--- a/data/Map125.xlsx
+++ b/data/Map125.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>自動実行</t>
   </si>
@@ -180,7 +180,13 @@
     <t>シィナ</t>
   </si>
   <si>
+    <t>Sina</t>
+  </si>
+  <si>
     <t>リリー</t>
+  </si>
+  <si>
+    <t>Rewrite     -   Lily</t>
   </si>
   <si>
     <t>パイ</t>
@@ -531,7 +537,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,242 +545,251 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map125.xlsx
+++ b/data/Map125.xlsx
@@ -180,13 +180,13 @@
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>パイ</t>

--- a/data/Map125.xlsx
+++ b/data/Map125.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>自動実行</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>ライム</t>
+  </si>
+  <si>
+    <t>Lime</t>
   </si>
   <si>
     <t>シィナ</t>
@@ -754,42 +757,51 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map125.xlsx
+++ b/data/Map125.xlsx
@@ -540,7 +540,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,259 +548,379 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s">
         <v>50</v>
       </c>
     </row>

--- a/data/Map125.xlsx
+++ b/data/Map125.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09142354-D467-4D66-9F62-BD4B68621BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
   <si>
     <t>自動実行</t>
   </si>
@@ -202,19 +208,166 @@
   </si>
   <si>
     <t>cake</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Hmmmhmmm♪</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Yup. I found a cook book.
+Humans are incredible!
+I've got so many ideas about how to make delicious food!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Really…</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You're completely obsessed with cooking, nyaa.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;It does so matter.
+I have to consider the taste and nutritional value.
+That way, they'll eat a lot, and I can get lots more tasty semen!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Are you getting a little chubby, nya?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Why would you say that out of nowhere!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You were really shapely when you first got here, nya.
+Now you've got this bulging belly, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;I was on the verge of starvation back then.
+This is my normal shape-.
+Taste this.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Delicious, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Hmmhmmm♥</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Sluurk sluurk...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;What the hell is that...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I thought it was a hairball you threw up.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Is this squishy little thing...
+Is it alive, nya?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Slimes generally live in the outskirts of Dandelion.
+What's one doing in a place like this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n&lt;Lily&gt;Hmmm...
+It's on the verge of dying.
+It's got very little magic left, and its body is falling apart.
+</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I actually feel a little sorry for it, nyan...
+What should we do, nya?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What indeed...</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Ah-! I thought I was about to die-!
+Thank you so very much-!
+Nom nom. Munch munch.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;My pleasure.
+(I accidentally turned her into a succubus...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Lily, what are we going to do with this blob, nya?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;We can't just wad her up in a napkin and throw here away now.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Hey, what's your name, nya?</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Munch...
+Name?
+I don't know. What do you think it should be-?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Cut that out.
+Um, well, since you're a slime...
+How about Lime?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;That's probably better, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;My name is Lily.
+The cat here is Shina.
+It's nice to meet you, Lime.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Lime, huh...
+Fufu...♥
+I never thought I'd be given a name-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;How about Booger then, nya. You're Booger.</t>
+  </si>
+  <si>
+    <t>\n&lt;Booger&gt;Huh? Really?
+A name for me? Amazing!</t>
+  </si>
+  <si>
+    <t>\n&lt;Booger&gt;How wonderful-♥
+Booger♥ Booger♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Lime?
+Yes! That sounds great! Thank you-!
+But what about Booger?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Just forget about Booger.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;If you puked that much, you'd be dead, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;So hungry... So thirsty...
+Nom nom. Gulp.
+My body... Almost melted away. Munch.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Bah. The taste doesn't matter.
+All you need to do is make something edible so the
+captive humans don't die of starvation, nya-.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;On closer inspection, it's not a pile of gunk.
+It's a slime monster.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;This thing is a monster...?
+It looks pretty weak, nya.
+I don't know, though.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -225,28 +378,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -536,19 +701,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -564,319 +731,436 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -884,7 +1168,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -892,7 +1176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -900,7 +1184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -908,7 +1192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -916,7 +1200,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -925,17 +1209,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>